--- a/assets/docs/Format Kegiatan.xlsx
+++ b/assets/docs/Format Kegiatan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vandoc/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30D184E2-6DAA-6D46-800E-16B2233CB9F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742043DE-5202-6B44-8ED5-70E68A426416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{5EDCC650-CF7F-BF4C-A922-75EAF64FC947}"/>
+    <workbookView xWindow="25620" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{5EDCC650-CF7F-BF4C-A922-75EAF64FC947}"/>
   </bookViews>
   <sheets>
     <sheet name="Kegiatan" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="581">
-  <si>
-    <t>Pentas Seni</t>
-  </si>
-  <si>
-    <t>Pentas seni yang diadakan pada sekolah dasar 123</t>
-  </si>
-  <si>
-    <t>jl.abc lr.asd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="589">
   <si>
     <t>Judul</t>
   </si>
@@ -53,9 +44,6 @@
     <t>Tanggal Selesai</t>
   </si>
   <si>
-    <t>Lokasi</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -71,15 +59,6 @@
     <t>Kota / Kabupaten</t>
   </si>
   <si>
-    <t>Pentas seni yang diadakan pada sekolah dasar 124</t>
-  </si>
-  <si>
-    <t>Pentas seni yang diadakan pada sekolah dasar 125</t>
-  </si>
-  <si>
-    <t>Pentas seni yang diadakan pada sekolah dasar 126</t>
-  </si>
-  <si>
     <t>Belum Dilaksanakan</t>
   </si>
   <si>
@@ -1773,6 +1752,51 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>&lt;&lt; Jangan dihapus, harus diletakan dibawah baris terakhir, kolom pertama</t>
+  </si>
+  <si>
+    <t>Judul 1</t>
+  </si>
+  <si>
+    <t>Judul 2</t>
+  </si>
+  <si>
+    <t>Judul 3</t>
+  </si>
+  <si>
+    <t>Judul 4</t>
+  </si>
+  <si>
+    <t>Deskripsi 1</t>
+  </si>
+  <si>
+    <t>Deskripsi 2</t>
+  </si>
+  <si>
+    <t>Deskripsi 3</t>
+  </si>
+  <si>
+    <t>Deskripsi 4</t>
+  </si>
+  <si>
+    <t>Lokasi 1</t>
+  </si>
+  <si>
+    <t>Lokasi 2</t>
+  </si>
+  <si>
+    <t>Lokasi 3</t>
+  </si>
+  <si>
+    <t>Lokasi 4</t>
+  </si>
+  <si>
+    <t>Alamat</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1804,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1861,7 +1885,7 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1871,7 +1895,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1880,7 +1904,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2211,7 +2235,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2231,53 +2255,53 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>580</v>
       </c>
       <c r="C2" s="6">
         <v>44127</v>
       </c>
       <c r="D2" s="6">
-        <v>44134</v>
+        <v>44131</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2</v>
+        <v>584</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -2289,112 +2313,116 @@
         <v>1</v>
       </c>
       <c r="I2" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J2" s="4">
-        <v>1</v>
+        <v>1671</v>
       </c>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44128</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44132</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6">
-        <v>44127</v>
-      </c>
-      <c r="D3" s="6">
-        <v>44134</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44129</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44133</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6">
-        <v>44127</v>
-      </c>
-      <c r="D4" s="6">
-        <v>44134</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
       <c r="H4" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>583</v>
       </c>
       <c r="C5" s="6">
-        <v>44127</v>
+        <v>44130</v>
       </c>
       <c r="D5" s="6">
         <v>44134</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
       <c r="G5" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>575</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
@@ -2551,10 +2579,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2562,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2570,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2578,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2586,7 +2614,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2594,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2602,7 +2630,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2625,10 +2653,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2636,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2644,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2652,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2660,7 +2688,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2668,7 +2696,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2691,10 +2719,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2702,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2710,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2718,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2726,7 +2754,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2734,7 +2762,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2747,7 +2775,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2757,10 +2785,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2768,127 +2796,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2896,23 +2924,23 @@
         <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2920,130 +2948,133 @@
         <v>53</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
+    <sortCondition ref="A1:A36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3052,8 +3083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD88B47-9DDF-A24A-B360-E52097A8E3A2}">
   <dimension ref="A1:B516"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3063,10 +3094,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3074,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3082,7 +3113,7 @@
         <v>1101</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3090,7 +3121,7 @@
         <v>1102</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3098,7 +3129,7 @@
         <v>1103</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3106,7 +3137,7 @@
         <v>1104</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3114,7 +3145,7 @@
         <v>1105</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3122,7 +3153,7 @@
         <v>1106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3130,7 +3161,7 @@
         <v>1107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3138,7 +3169,7 @@
         <v>1108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3146,7 +3177,7 @@
         <v>1109</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3154,7 +3185,7 @@
         <v>1110</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3162,7 +3193,7 @@
         <v>1111</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3170,7 +3201,7 @@
         <v>1112</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3178,7 +3209,7 @@
         <v>1113</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3186,7 +3217,7 @@
         <v>1114</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3194,7 +3225,7 @@
         <v>1115</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3202,7 +3233,7 @@
         <v>1116</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3210,7 +3241,7 @@
         <v>1117</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3218,7 +3249,7 @@
         <v>1118</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3226,7 +3257,7 @@
         <v>1171</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3234,7 +3265,7 @@
         <v>1172</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3242,7 +3273,7 @@
         <v>1173</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3250,7 +3281,7 @@
         <v>1174</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3258,7 +3289,7 @@
         <v>1175</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3266,7 +3297,7 @@
         <v>1201</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3274,7 +3305,7 @@
         <v>1202</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3282,7 +3313,7 @@
         <v>1203</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3290,7 +3321,7 @@
         <v>1204</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3298,7 +3329,7 @@
         <v>1205</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3306,7 +3337,7 @@
         <v>1206</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3314,7 +3345,7 @@
         <v>1207</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3322,7 +3353,7 @@
         <v>1208</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3330,7 +3361,7 @@
         <v>1209</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3338,7 +3369,7 @@
         <v>1210</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3346,7 +3377,7 @@
         <v>1211</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3354,7 +3385,7 @@
         <v>1212</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3362,7 +3393,7 @@
         <v>1213</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3370,7 +3401,7 @@
         <v>1214</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3378,7 +3409,7 @@
         <v>1215</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3386,7 +3417,7 @@
         <v>1216</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3394,7 +3425,7 @@
         <v>1217</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3402,7 +3433,7 @@
         <v>1218</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3410,7 +3441,7 @@
         <v>1219</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3418,7 +3449,7 @@
         <v>1220</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3426,7 +3457,7 @@
         <v>1221</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3434,7 +3465,7 @@
         <v>1222</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3442,7 +3473,7 @@
         <v>1223</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3450,7 +3481,7 @@
         <v>1224</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3458,7 +3489,7 @@
         <v>1225</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3466,7 +3497,7 @@
         <v>1271</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3474,7 +3505,7 @@
         <v>1272</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3482,7 +3513,7 @@
         <v>1273</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3490,7 +3521,7 @@
         <v>1274</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3498,7 +3529,7 @@
         <v>1275</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3506,7 +3537,7 @@
         <v>1276</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -3514,7 +3545,7 @@
         <v>1277</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -3522,7 +3553,7 @@
         <v>1278</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -3530,7 +3561,7 @@
         <v>1301</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -3538,7 +3569,7 @@
         <v>1302</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -3546,7 +3577,7 @@
         <v>1303</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -3554,7 +3585,7 @@
         <v>1304</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -3562,7 +3593,7 @@
         <v>1305</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -3570,7 +3601,7 @@
         <v>1306</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -3578,7 +3609,7 @@
         <v>1307</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -3586,7 +3617,7 @@
         <v>1308</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -3594,7 +3625,7 @@
         <v>1309</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -3602,7 +3633,7 @@
         <v>1310</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -3610,7 +3641,7 @@
         <v>1311</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -3618,7 +3649,7 @@
         <v>1312</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -3626,7 +3657,7 @@
         <v>1371</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -3634,7 +3665,7 @@
         <v>1372</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -3642,7 +3673,7 @@
         <v>1373</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -3650,7 +3681,7 @@
         <v>1374</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -3658,7 +3689,7 @@
         <v>1375</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -3666,7 +3697,7 @@
         <v>1376</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -3674,7 +3705,7 @@
         <v>1377</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -3682,7 +3713,7 @@
         <v>1401</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -3690,7 +3721,7 @@
         <v>1402</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -3698,7 +3729,7 @@
         <v>1403</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -3706,7 +3737,7 @@
         <v>1404</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -3714,7 +3745,7 @@
         <v>1405</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -3722,7 +3753,7 @@
         <v>1406</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -3730,7 +3761,7 @@
         <v>1407</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -3738,7 +3769,7 @@
         <v>1408</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -3746,7 +3777,7 @@
         <v>1409</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -3754,7 +3785,7 @@
         <v>1410</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -3762,7 +3793,7 @@
         <v>1471</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -3770,7 +3801,7 @@
         <v>1473</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -3778,7 +3809,7 @@
         <v>1501</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -3786,7 +3817,7 @@
         <v>1502</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -3794,7 +3825,7 @@
         <v>1503</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -3802,7 +3833,7 @@
         <v>1504</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -3810,7 +3841,7 @@
         <v>1505</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -3818,7 +3849,7 @@
         <v>1506</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -3826,7 +3857,7 @@
         <v>1507</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -3834,7 +3865,7 @@
         <v>1508</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -3842,7 +3873,7 @@
         <v>1509</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -3850,7 +3881,7 @@
         <v>1571</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -3858,7 +3889,7 @@
         <v>1572</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -3866,7 +3897,7 @@
         <v>1601</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -3874,7 +3905,7 @@
         <v>1602</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -3882,7 +3913,7 @@
         <v>1603</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -3890,7 +3921,7 @@
         <v>1604</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -3898,7 +3929,7 @@
         <v>1605</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -3906,7 +3937,7 @@
         <v>1606</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -3914,7 +3945,7 @@
         <v>1607</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -3922,7 +3953,7 @@
         <v>1608</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -3930,7 +3961,7 @@
         <v>1609</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -3938,7 +3969,7 @@
         <v>1610</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -3946,7 +3977,7 @@
         <v>1611</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -3954,7 +3985,7 @@
         <v>1612</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -3962,7 +3993,7 @@
         <v>1613</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -3970,7 +4001,7 @@
         <v>1671</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -3978,7 +4009,7 @@
         <v>1672</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -3986,7 +4017,7 @@
         <v>1673</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -3994,7 +4025,7 @@
         <v>1674</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4002,7 +4033,7 @@
         <v>1701</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4010,7 +4041,7 @@
         <v>1702</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4018,7 +4049,7 @@
         <v>1703</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4026,7 +4057,7 @@
         <v>1704</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4034,7 +4065,7 @@
         <v>1705</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4042,7 +4073,7 @@
         <v>1706</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4050,7 +4081,7 @@
         <v>1707</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4058,7 +4089,7 @@
         <v>1708</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4066,7 +4097,7 @@
         <v>1709</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4074,7 +4105,7 @@
         <v>1771</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4082,7 +4113,7 @@
         <v>1801</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4090,7 +4121,7 @@
         <v>1802</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4098,7 +4129,7 @@
         <v>1803</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4106,7 +4137,7 @@
         <v>1804</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4114,7 +4145,7 @@
         <v>1805</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4122,7 +4153,7 @@
         <v>1806</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4130,7 +4161,7 @@
         <v>1807</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4138,7 +4169,7 @@
         <v>1808</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4146,7 +4177,7 @@
         <v>1809</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4154,7 +4185,7 @@
         <v>1810</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4162,7 +4193,7 @@
         <v>1811</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4170,7 +4201,7 @@
         <v>1812</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4178,7 +4209,7 @@
         <v>1813</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4186,7 +4217,7 @@
         <v>1871</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4194,7 +4225,7 @@
         <v>1872</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4202,7 +4233,7 @@
         <v>1901</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4210,7 +4241,7 @@
         <v>1902</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4218,7 +4249,7 @@
         <v>1903</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4226,7 +4257,7 @@
         <v>1904</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4234,7 +4265,7 @@
         <v>1905</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4242,7 +4273,7 @@
         <v>1906</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4250,7 +4281,7 @@
         <v>1971</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4258,7 +4289,7 @@
         <v>2101</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4266,7 +4297,7 @@
         <v>2102</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4274,7 +4305,7 @@
         <v>2103</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4282,7 +4313,7 @@
         <v>2104</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4290,7 +4321,7 @@
         <v>2105</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4298,7 +4329,7 @@
         <v>2171</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4306,7 +4337,7 @@
         <v>2172</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4314,7 +4345,7 @@
         <v>3101</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4322,7 +4353,7 @@
         <v>3171</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4330,7 +4361,7 @@
         <v>3172</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4338,7 +4369,7 @@
         <v>3173</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4346,7 +4377,7 @@
         <v>3174</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4354,7 +4385,7 @@
         <v>3175</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4362,7 +4393,7 @@
         <v>3201</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4370,7 +4401,7 @@
         <v>3202</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4378,7 +4409,7 @@
         <v>3203</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4386,7 +4417,7 @@
         <v>3204</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4394,7 +4425,7 @@
         <v>3205</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4402,7 +4433,7 @@
         <v>3206</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4410,7 +4441,7 @@
         <v>3207</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4418,7 +4449,7 @@
         <v>3208</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4426,7 +4457,7 @@
         <v>3209</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4434,7 +4465,7 @@
         <v>3210</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4442,7 +4473,7 @@
         <v>3211</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4450,7 +4481,7 @@
         <v>3212</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4458,7 +4489,7 @@
         <v>3213</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4466,7 +4497,7 @@
         <v>3214</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4474,7 +4505,7 @@
         <v>3215</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4482,7 +4513,7 @@
         <v>3216</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -4490,7 +4521,7 @@
         <v>3217</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -4498,7 +4529,7 @@
         <v>3218</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4506,7 +4537,7 @@
         <v>3271</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -4514,7 +4545,7 @@
         <v>3272</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -4522,7 +4553,7 @@
         <v>3273</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -4530,7 +4561,7 @@
         <v>3274</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -4538,7 +4569,7 @@
         <v>3275</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -4546,7 +4577,7 @@
         <v>3276</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -4554,7 +4585,7 @@
         <v>3277</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -4562,7 +4593,7 @@
         <v>3278</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -4570,7 +4601,7 @@
         <v>3279</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -4578,7 +4609,7 @@
         <v>3301</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -4586,7 +4617,7 @@
         <v>3302</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -4594,7 +4625,7 @@
         <v>3303</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -4602,7 +4633,7 @@
         <v>3304</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -4610,7 +4641,7 @@
         <v>3305</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -4618,7 +4649,7 @@
         <v>3306</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -4626,7 +4657,7 @@
         <v>3307</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -4634,7 +4665,7 @@
         <v>3308</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -4642,7 +4673,7 @@
         <v>3309</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -4650,7 +4681,7 @@
         <v>3310</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -4658,7 +4689,7 @@
         <v>3311</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -4666,7 +4697,7 @@
         <v>3312</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -4674,7 +4705,7 @@
         <v>3313</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -4682,7 +4713,7 @@
         <v>3314</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -4690,7 +4721,7 @@
         <v>3315</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -4698,7 +4729,7 @@
         <v>3316</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -4706,7 +4737,7 @@
         <v>3317</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -4714,7 +4745,7 @@
         <v>3318</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -4722,7 +4753,7 @@
         <v>3319</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -4730,7 +4761,7 @@
         <v>3320</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -4738,7 +4769,7 @@
         <v>3321</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -4746,7 +4777,7 @@
         <v>3322</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -4754,7 +4785,7 @@
         <v>3323</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -4762,7 +4793,7 @@
         <v>3324</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -4770,7 +4801,7 @@
         <v>3325</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -4778,7 +4809,7 @@
         <v>3326</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -4786,7 +4817,7 @@
         <v>3327</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -4794,7 +4825,7 @@
         <v>3328</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -4802,7 +4833,7 @@
         <v>3329</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -4810,7 +4841,7 @@
         <v>3371</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -4818,7 +4849,7 @@
         <v>3372</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -4826,7 +4857,7 @@
         <v>3373</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -4834,7 +4865,7 @@
         <v>3374</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -4842,7 +4873,7 @@
         <v>3375</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -4850,7 +4881,7 @@
         <v>3376</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -4858,7 +4889,7 @@
         <v>3401</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -4866,7 +4897,7 @@
         <v>3402</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -4874,7 +4905,7 @@
         <v>3403</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -4882,7 +4913,7 @@
         <v>3404</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -4890,7 +4921,7 @@
         <v>3471</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -4898,7 +4929,7 @@
         <v>3501</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -4906,7 +4937,7 @@
         <v>3502</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -4914,7 +4945,7 @@
         <v>3503</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -4922,7 +4953,7 @@
         <v>3504</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -4930,7 +4961,7 @@
         <v>3505</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -4938,7 +4969,7 @@
         <v>3506</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -4946,7 +4977,7 @@
         <v>3507</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -4954,7 +4985,7 @@
         <v>3508</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -4962,7 +4993,7 @@
         <v>3509</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -4970,7 +5001,7 @@
         <v>3510</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -4978,7 +5009,7 @@
         <v>3511</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -4986,7 +5017,7 @@
         <v>3512</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -4994,7 +5025,7 @@
         <v>3513</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5002,7 +5033,7 @@
         <v>3514</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5010,7 +5041,7 @@
         <v>3515</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5018,7 +5049,7 @@
         <v>3516</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5026,7 +5057,7 @@
         <v>3517</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5034,7 +5065,7 @@
         <v>3518</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5042,7 +5073,7 @@
         <v>3519</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5050,7 +5081,7 @@
         <v>3520</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5058,7 +5089,7 @@
         <v>3521</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5066,7 +5097,7 @@
         <v>3522</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5074,7 +5105,7 @@
         <v>3523</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5082,7 +5113,7 @@
         <v>3524</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5090,7 +5121,7 @@
         <v>3525</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5098,7 +5129,7 @@
         <v>3526</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5106,7 +5137,7 @@
         <v>3527</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5114,7 +5145,7 @@
         <v>3528</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5122,7 +5153,7 @@
         <v>3529</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5130,7 +5161,7 @@
         <v>3571</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5138,7 +5169,7 @@
         <v>3572</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5146,7 +5177,7 @@
         <v>3573</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5154,7 +5185,7 @@
         <v>3574</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5162,7 +5193,7 @@
         <v>3575</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5170,7 +5201,7 @@
         <v>3576</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5178,7 +5209,7 @@
         <v>3577</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5186,7 +5217,7 @@
         <v>3578</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5194,7 +5225,7 @@
         <v>3579</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5202,7 +5233,7 @@
         <v>3601</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5210,7 +5241,7 @@
         <v>3602</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5218,7 +5249,7 @@
         <v>3603</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5226,7 +5257,7 @@
         <v>3604</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5234,7 +5265,7 @@
         <v>3671</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5242,7 +5273,7 @@
         <v>3672</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5250,7 +5281,7 @@
         <v>3673</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -5258,7 +5289,7 @@
         <v>3674</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5266,7 +5297,7 @@
         <v>5101</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5274,7 +5305,7 @@
         <v>5102</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5282,7 +5313,7 @@
         <v>5103</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5290,7 +5321,7 @@
         <v>5104</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5298,7 +5329,7 @@
         <v>5105</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5306,7 +5337,7 @@
         <v>5106</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5314,7 +5345,7 @@
         <v>5107</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5322,7 +5353,7 @@
         <v>5108</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5330,7 +5361,7 @@
         <v>5171</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5338,7 +5369,7 @@
         <v>5201</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5346,7 +5377,7 @@
         <v>5202</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5354,7 +5385,7 @@
         <v>5203</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5362,7 +5393,7 @@
         <v>5204</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5370,7 +5401,7 @@
         <v>5205</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5378,7 +5409,7 @@
         <v>5206</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5386,7 +5417,7 @@
         <v>5207</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5394,7 +5425,7 @@
         <v>5208</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5402,7 +5433,7 @@
         <v>5271</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5410,7 +5441,7 @@
         <v>5272</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5418,7 +5449,7 @@
         <v>5301</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5426,7 +5457,7 @@
         <v>5302</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5434,7 +5465,7 @@
         <v>5303</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5442,7 +5473,7 @@
         <v>5304</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5450,7 +5481,7 @@
         <v>5305</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5458,7 +5489,7 @@
         <v>5306</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5466,7 +5497,7 @@
         <v>5307</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5474,7 +5505,7 @@
         <v>5308</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5482,7 +5513,7 @@
         <v>5309</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -5490,7 +5521,7 @@
         <v>5310</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -5498,7 +5529,7 @@
         <v>5311</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -5506,7 +5537,7 @@
         <v>5312</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -5514,7 +5545,7 @@
         <v>5313</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -5522,7 +5553,7 @@
         <v>5314</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -5530,7 +5561,7 @@
         <v>5315</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -5538,7 +5569,7 @@
         <v>5316</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -5546,7 +5577,7 @@
         <v>5317</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -5554,7 +5585,7 @@
         <v>5318</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -5562,7 +5593,7 @@
         <v>5319</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -5570,7 +5601,7 @@
         <v>5320</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -5578,7 +5609,7 @@
         <v>5321</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -5586,7 +5617,7 @@
         <v>5371</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -5594,7 +5625,7 @@
         <v>6101</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -5602,7 +5633,7 @@
         <v>6102</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -5610,7 +5641,7 @@
         <v>6103</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -5618,7 +5649,7 @@
         <v>6104</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -5626,7 +5657,7 @@
         <v>6105</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -5634,7 +5665,7 @@
         <v>6106</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -5642,7 +5673,7 @@
         <v>6107</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -5650,7 +5681,7 @@
         <v>6108</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -5658,7 +5689,7 @@
         <v>6109</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -5666,7 +5697,7 @@
         <v>6110</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -5674,7 +5705,7 @@
         <v>6111</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -5682,7 +5713,7 @@
         <v>6112</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -5690,7 +5721,7 @@
         <v>6171</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -5698,7 +5729,7 @@
         <v>6172</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -5706,7 +5737,7 @@
         <v>6201</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -5714,7 +5745,7 @@
         <v>6202</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -5722,7 +5753,7 @@
         <v>6203</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -5730,7 +5761,7 @@
         <v>6204</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -5738,7 +5769,7 @@
         <v>6205</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -5746,7 +5777,7 @@
         <v>6206</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -5754,7 +5785,7 @@
         <v>6207</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -5762,7 +5793,7 @@
         <v>6208</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -5770,7 +5801,7 @@
         <v>6209</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -5778,7 +5809,7 @@
         <v>6210</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -5786,7 +5817,7 @@
         <v>6211</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -5794,7 +5825,7 @@
         <v>6212</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -5802,7 +5833,7 @@
         <v>6213</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -5810,7 +5841,7 @@
         <v>6271</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -5818,7 +5849,7 @@
         <v>6301</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -5826,7 +5857,7 @@
         <v>6302</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -5834,7 +5865,7 @@
         <v>6303</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -5842,7 +5873,7 @@
         <v>6304</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -5850,7 +5881,7 @@
         <v>6305</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -5858,7 +5889,7 @@
         <v>6306</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -5866,7 +5897,7 @@
         <v>6307</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -5874,7 +5905,7 @@
         <v>6308</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -5882,7 +5913,7 @@
         <v>6309</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -5890,7 +5921,7 @@
         <v>6310</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -5898,7 +5929,7 @@
         <v>6311</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -5906,7 +5937,7 @@
         <v>6371</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -5914,7 +5945,7 @@
         <v>6372</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -5922,7 +5953,7 @@
         <v>6401</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -5930,7 +5961,7 @@
         <v>6402</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -5938,7 +5969,7 @@
         <v>6403</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -5946,7 +5977,7 @@
         <v>6404</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -5954,7 +5985,7 @@
         <v>6405</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -5962,7 +5993,7 @@
         <v>6409</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -5970,7 +6001,7 @@
         <v>6411</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -5978,7 +6009,7 @@
         <v>6471</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -5986,7 +6017,7 @@
         <v>6472</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -5994,7 +6025,7 @@
         <v>6474</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6002,7 +6033,7 @@
         <v>6501</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6010,7 +6041,7 @@
         <v>6502</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6018,7 +6049,7 @@
         <v>6503</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6026,7 +6057,7 @@
         <v>6504</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6034,7 +6065,7 @@
         <v>6571</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6042,7 +6073,7 @@
         <v>7101</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -6050,7 +6081,7 @@
         <v>7102</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6058,7 +6089,7 @@
         <v>7103</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6066,7 +6097,7 @@
         <v>7104</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -6074,7 +6105,7 @@
         <v>7105</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6082,7 +6113,7 @@
         <v>7106</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6090,7 +6121,7 @@
         <v>7107</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -6098,7 +6129,7 @@
         <v>7108</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6106,7 +6137,7 @@
         <v>7109</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6114,7 +6145,7 @@
         <v>7110</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6122,7 +6153,7 @@
         <v>7111</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6130,7 +6161,7 @@
         <v>7171</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6138,7 +6169,7 @@
         <v>7172</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -6146,7 +6177,7 @@
         <v>7173</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6154,7 +6185,7 @@
         <v>7174</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6162,7 +6193,7 @@
         <v>7201</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -6170,7 +6201,7 @@
         <v>7202</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -6178,7 +6209,7 @@
         <v>7203</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6186,7 +6217,7 @@
         <v>7204</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6194,7 +6225,7 @@
         <v>7205</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6202,7 +6233,7 @@
         <v>7206</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6210,7 +6241,7 @@
         <v>7207</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6218,7 +6249,7 @@
         <v>7208</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6226,7 +6257,7 @@
         <v>7209</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6234,7 +6265,7 @@
         <v>7210</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -6242,7 +6273,7 @@
         <v>7211</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -6250,7 +6281,7 @@
         <v>7212</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -6258,7 +6289,7 @@
         <v>7271</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -6266,7 +6297,7 @@
         <v>7301</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6274,7 +6305,7 @@
         <v>7302</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -6282,7 +6313,7 @@
         <v>7303</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -6290,7 +6321,7 @@
         <v>7304</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -6298,7 +6329,7 @@
         <v>7305</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -6306,7 +6337,7 @@
         <v>7306</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -6314,7 +6345,7 @@
         <v>7307</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -6322,7 +6353,7 @@
         <v>7308</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6330,7 +6361,7 @@
         <v>7309</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6338,7 +6369,7 @@
         <v>7310</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6346,7 +6377,7 @@
         <v>7311</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6354,7 +6385,7 @@
         <v>7312</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6362,7 +6393,7 @@
         <v>7313</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6370,7 +6401,7 @@
         <v>7314</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6378,7 +6409,7 @@
         <v>7315</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6386,7 +6417,7 @@
         <v>7316</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6394,7 +6425,7 @@
         <v>7317</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -6402,7 +6433,7 @@
         <v>7318</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -6410,7 +6441,7 @@
         <v>7322</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -6418,7 +6449,7 @@
         <v>7325</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6426,7 +6457,7 @@
         <v>7326</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -6434,7 +6465,7 @@
         <v>7371</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -6442,7 +6473,7 @@
         <v>7372</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -6450,7 +6481,7 @@
         <v>7373</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6458,7 +6489,7 @@
         <v>7401</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -6466,7 +6497,7 @@
         <v>7402</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6474,7 +6505,7 @@
         <v>7403</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -6482,7 +6513,7 @@
         <v>7404</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -6490,7 +6521,7 @@
         <v>7405</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -6498,7 +6529,7 @@
         <v>7406</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -6506,7 +6537,7 @@
         <v>7407</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -6514,7 +6545,7 @@
         <v>7408</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -6522,7 +6553,7 @@
         <v>7409</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -6530,7 +6561,7 @@
         <v>7410</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -6538,7 +6569,7 @@
         <v>7411</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -6546,7 +6577,7 @@
         <v>7412</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -6554,7 +6585,7 @@
         <v>7413</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -6562,7 +6593,7 @@
         <v>7414</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -6570,7 +6601,7 @@
         <v>7415</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -6578,7 +6609,7 @@
         <v>7471</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -6586,7 +6617,7 @@
         <v>7472</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -6594,7 +6625,7 @@
         <v>7501</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -6602,7 +6633,7 @@
         <v>7502</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -6610,7 +6641,7 @@
         <v>7503</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -6618,7 +6649,7 @@
         <v>7504</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -6626,7 +6657,7 @@
         <v>7505</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -6634,7 +6665,7 @@
         <v>7571</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -6642,7 +6673,7 @@
         <v>7601</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -6650,7 +6681,7 @@
         <v>7602</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -6658,7 +6689,7 @@
         <v>7603</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -6666,7 +6697,7 @@
         <v>7604</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -6674,7 +6705,7 @@
         <v>7605</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -6682,7 +6713,7 @@
         <v>7606</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -6690,7 +6721,7 @@
         <v>8101</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -6698,7 +6729,7 @@
         <v>8102</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -6706,7 +6737,7 @@
         <v>8103</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -6714,7 +6745,7 @@
         <v>8104</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -6722,7 +6753,7 @@
         <v>8105</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -6730,7 +6761,7 @@
         <v>8106</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -6738,7 +6769,7 @@
         <v>8107</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -6746,7 +6777,7 @@
         <v>8108</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -6754,7 +6785,7 @@
         <v>8109</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -6762,7 +6793,7 @@
         <v>8171</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -6770,7 +6801,7 @@
         <v>8172</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -6778,7 +6809,7 @@
         <v>8201</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -6786,7 +6817,7 @@
         <v>8202</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -6794,7 +6825,7 @@
         <v>8203</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -6802,7 +6833,7 @@
         <v>8204</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -6810,7 +6841,7 @@
         <v>8205</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -6818,7 +6849,7 @@
         <v>8206</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -6826,7 +6857,7 @@
         <v>8207</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -6834,7 +6865,7 @@
         <v>8208</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -6842,7 +6873,7 @@
         <v>8271</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -6850,7 +6881,7 @@
         <v>8272</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -6858,7 +6889,7 @@
         <v>9101</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -6866,7 +6897,7 @@
         <v>9102</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -6874,7 +6905,7 @@
         <v>9103</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -6882,7 +6913,7 @@
         <v>9104</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -6890,7 +6921,7 @@
         <v>9105</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -6898,7 +6929,7 @@
         <v>9106</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -6906,7 +6937,7 @@
         <v>9107</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -6914,7 +6945,7 @@
         <v>9108</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -6922,7 +6953,7 @@
         <v>9109</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
@@ -6930,7 +6961,7 @@
         <v>9110</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -6938,7 +6969,7 @@
         <v>9111</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -6946,7 +6977,7 @@
         <v>9112</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -6954,7 +6985,7 @@
         <v>9171</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -6962,7 +6993,7 @@
         <v>9401</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -6970,7 +7001,7 @@
         <v>9402</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -6978,7 +7009,7 @@
         <v>9403</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -6986,7 +7017,7 @@
         <v>9404</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -6994,7 +7025,7 @@
         <v>9408</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -7002,7 +7033,7 @@
         <v>9409</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -7010,7 +7041,7 @@
         <v>9410</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -7018,7 +7049,7 @@
         <v>9411</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -7026,7 +7057,7 @@
         <v>9412</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -7034,7 +7065,7 @@
         <v>9413</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -7042,7 +7073,7 @@
         <v>9414</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -7050,7 +7081,7 @@
         <v>9415</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -7058,7 +7089,7 @@
         <v>9416</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -7066,7 +7097,7 @@
         <v>9417</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -7074,7 +7105,7 @@
         <v>9418</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -7082,7 +7113,7 @@
         <v>9419</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -7090,7 +7121,7 @@
         <v>9420</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -7098,7 +7129,7 @@
         <v>9426</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -7106,7 +7137,7 @@
         <v>9427</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -7114,7 +7145,7 @@
         <v>9428</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -7122,7 +7153,7 @@
         <v>9429</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -7130,7 +7161,7 @@
         <v>9430</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7138,7 +7169,7 @@
         <v>9431</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -7146,7 +7177,7 @@
         <v>9432</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -7154,7 +7185,7 @@
         <v>9433</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -7162,7 +7193,7 @@
         <v>9434</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -7170,7 +7201,7 @@
         <v>9435</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -7178,7 +7209,7 @@
         <v>9436</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -7186,10 +7217,13 @@
         <v>9471</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B516">
+    <sortCondition ref="A1:A516"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/docs/Format Kegiatan.xlsx
+++ b/assets/docs/Format Kegiatan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vandoc/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vandoc/Documents/Digital Creative/PUPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742043DE-5202-6B44-8ED5-70E68A426416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DFFE53-C151-3948-B395-6B0A7BD69A71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25620" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{5EDCC650-CF7F-BF4C-A922-75EAF64FC947}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{5EDCC650-CF7F-BF4C-A922-75EAF64FC947}"/>
   </bookViews>
   <sheets>
     <sheet name="Kegiatan" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="589">
   <si>
     <t>Judul</t>
   </si>
@@ -2232,10 +2232,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA67DDE-3B7B-2A46-AB16-00860512A2F1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2245,15 +2245,14 @@
     <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" customWidth="1"/>
-    <col min="13" max="13" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2270,24 +2269,21 @@
         <v>588</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>576</v>
       </c>
@@ -2310,17 +2306,14 @@
         <v>1</v>
       </c>
       <c r="H2" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4">
         <v>1671</v>
       </c>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>577</v>
       </c>
@@ -2337,22 +2330,19 @@
         <v>585</v>
       </c>
       <c r="F3" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4">
         <v>1571</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>578</v>
       </c>
@@ -2369,22 +2359,19 @@
         <v>586</v>
       </c>
       <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
       <c r="H4" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4">
-        <v>16</v>
-      </c>
-      <c r="J4" s="4">
         <v>1674</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>579</v>
       </c>
@@ -2401,22 +2388,19 @@
         <v>587</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="4">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I5" s="4">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4">
         <v>1672</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>574</v>
       </c>
@@ -2430,9 +2414,8 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -2442,111 +2425,110 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
@@ -2554,9 +2536,9 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="60" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
